--- a/vars.xlsx
+++ b/vars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arubin/Art-Markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DE042304-478F-F549-A041-91BE1B79BE31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{26836990-D08F-CE42-A402-4D150753B003}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>variables</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>volume</t>
-  </si>
-  <si>
-    <t>width multiplied by length by height in cm squared</t>
   </si>
   <si>
     <t>sale rate of sold before</t>
@@ -1091,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A24" sqref="A23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,136 +1321,125 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
